--- a/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/2M4U3I3I3I.xlsx
+++ b/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/2M4U3I3I3I.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4FF2DF-5EB1-4AAF-ACA8-769C8966F474}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B734B4-6F58-46B7-A696-460E9FC71288}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -774,7 +774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65612A67-1815-4870-B4D2-BC356C3E96C2}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
@@ -846,8 +846,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1995,8 +1995,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2124,7 +2124,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -2138,7 +2138,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -2152,7 +2152,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>9</v>
@@ -2166,7 +2166,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>10</v>
